--- a/Task2/Matrix.xlsx
+++ b/Task2/Matrix.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C22A9-40D5-4285-8394-2905B58AD221}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18C47B-FECA-43C9-8E9E-23A275B41679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12915" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12915" windowWidth="16440" windowHeight="28440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$AE$31</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="65">
   <si>
     <t>categories</t>
   </si>
@@ -204,12 +205,30 @@
   <si>
     <t>Pubs</t>
   </si>
+  <si>
+    <t>Salvadoran</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Bubble Tea</t>
+  </si>
+  <si>
+    <t>Shanghainese</t>
+  </si>
+  <si>
+    <t>Venues &amp; Event Spaces</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +257,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -276,6 +340,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,8 +3587,2960 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:31" ht="99" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2.0065391264628502E-2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0.14142134679549301</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>2.0076331824801001E-2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0.14142135342203899</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2.0086820240246099E-2</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0.14142136372522399</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2.2220732718277101E-2</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0.113980637395059</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0.156619206155755</v>
+      </c>
+      <c r="Y49">
+        <v>0.113980641889123</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>1.8039070157244201E-2</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2.0068357026146701E-2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0.141421353272593</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>2.00753960441717E-2</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0.14142136010960499</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.99999998733738604</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2.00718490557735E-2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0.14142135580778301</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>2.0074364003557499E-2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0.141421354455146</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2.0074895435911198E-2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0.14142135549783899</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>2.0065392358604401E-2</v>
+      </c>
+      <c r="C55">
+        <v>2.0076332593230301E-2</v>
+      </c>
+      <c r="D55">
+        <v>2.0086819186295402E-2</v>
+      </c>
+      <c r="E55">
+        <v>2.2220700632821999E-2</v>
+      </c>
+      <c r="F55">
+        <v>2.0068356988356E-2</v>
+      </c>
+      <c r="G55">
+        <v>2.00753949192134E-2</v>
+      </c>
+      <c r="H55">
+        <v>2.00718492869199E-2</v>
+      </c>
+      <c r="I55">
+        <v>2.00743639605282E-2</v>
+      </c>
+      <c r="J55">
+        <v>2.00748953929599E-2</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2.0061006312137399E-2</v>
+      </c>
+      <c r="M55">
+        <v>2.0061005204922398E-2</v>
+      </c>
+      <c r="N55">
+        <v>2.0061006294797599E-2</v>
+      </c>
+      <c r="O55">
+        <v>2.0061006324534E-2</v>
+      </c>
+      <c r="P55">
+        <v>2.00610055810733E-2</v>
+      </c>
+      <c r="Q55">
+        <v>2.0061004982422598E-2</v>
+      </c>
+      <c r="R55">
+        <v>2.0061006457890999E-2</v>
+      </c>
+      <c r="S55">
+        <v>2.0061004899966001E-2</v>
+      </c>
+      <c r="T55">
+        <v>2.00610052746432E-2</v>
+      </c>
+      <c r="U55">
+        <v>2.00610067172762E-2</v>
+      </c>
+      <c r="V55">
+        <v>2.0061006015021199E-2</v>
+      </c>
+      <c r="W55">
+        <v>2.0061004761737999E-2</v>
+      </c>
+      <c r="X55">
+        <v>0.279035684572987</v>
+      </c>
+      <c r="Y55">
+        <v>2.0061005759548101E-2</v>
+      </c>
+      <c r="Z55">
+        <v>2.5732311998229999E-2</v>
+      </c>
+      <c r="AA55">
+        <v>2.0061006800929801E-2</v>
+      </c>
+      <c r="AB55">
+        <v>2.0061005729131599E-2</v>
+      </c>
+      <c r="AC55">
+        <v>2.00610059555274E-2</v>
+      </c>
+      <c r="AD55">
+        <v>2.2982333767242999E-2</v>
+      </c>
+      <c r="AE55">
+        <v>2.0061005406814401E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>2.0061005614265999E-2</v>
+      </c>
+      <c r="L56">
+        <v>0.99999996306885996</v>
+      </c>
+      <c r="M56">
+        <v>0.99999988948777996</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0.14142135453134499</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2.0061004187527199E-2</v>
+      </c>
+      <c r="L57">
+        <v>0.99999987356017495</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0.99999997221482695</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0.141421349629063</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2.0061005596926199E-2</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0.99999998814243296</v>
+      </c>
+      <c r="N58">
+        <v>0.99999999920231097</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0.141421350607249</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2.00610052177322E-2</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0.14142134748740101</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0.99999996305412997</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2.0061004963905001E-2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0.99999992561322004</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0.141421349835015</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.113980469464662</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>2.0061004392996701E-2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0.99999996847501704</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0.14142135494220201</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0.15824695356235099</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>2.00610058407227E-2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0.99999996709529604</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0.14142134653706701</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>2.0061004623307701E-2</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0.99999998407383905</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>0.141421358125189</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>2.0061006445357899E-2</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0.141421364558314</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2.0061006486254699E-2</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0.99999998634035803</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0.141421356926861</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2.0061006057928699E-2</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0.14142135570430001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0.343573777465153</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2.0061003889910198E-2</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0.99999997033202404</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>0.14142135084801699</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>0.14142135480902601</v>
+      </c>
+      <c r="C68">
+        <v>0.14142135913816101</v>
+      </c>
+      <c r="D68">
+        <v>0.141421356608044</v>
+      </c>
+      <c r="E68">
+        <v>0.15661898034240801</v>
+      </c>
+      <c r="F68">
+        <v>0.141421353309447</v>
+      </c>
+      <c r="G68">
+        <v>0.14142135248798801</v>
+      </c>
+      <c r="H68">
+        <v>0.141421357739549</v>
+      </c>
+      <c r="I68">
+        <v>0.14142135445517501</v>
+      </c>
+      <c r="J68">
+        <v>0.14142135549842499</v>
+      </c>
+      <c r="K68">
+        <v>0.27903568517115501</v>
+      </c>
+      <c r="L68">
+        <v>0.1414213597542</v>
+      </c>
+      <c r="M68">
+        <v>0.141421357104421</v>
+      </c>
+      <c r="N68">
+        <v>0.14142135583010301</v>
+      </c>
+      <c r="O68">
+        <v>0.14142135559303601</v>
+      </c>
+      <c r="P68">
+        <v>0.14142135448894699</v>
+      </c>
+      <c r="Q68">
+        <v>0.141421359400563</v>
+      </c>
+      <c r="R68">
+        <v>0.141421351190999</v>
+      </c>
+      <c r="S68">
+        <v>0.141421360378675</v>
+      </c>
+      <c r="T68">
+        <v>0.14142135660845001</v>
+      </c>
+      <c r="U68">
+        <v>0.141421358858626</v>
+      </c>
+      <c r="V68">
+        <v>0.14142135570498501</v>
+      </c>
+      <c r="W68">
+        <v>0.14142135729718799</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0.14142135679866399</v>
+      </c>
+      <c r="Z68">
+        <v>0.181401521494925</v>
+      </c>
+      <c r="AA68">
+        <v>0.14142136302515701</v>
+      </c>
+      <c r="AB68">
+        <v>0.14142135268099201</v>
+      </c>
+      <c r="AC68">
+        <v>0.141421359503729</v>
+      </c>
+      <c r="AD68">
+        <v>0.16202690785974</v>
+      </c>
+      <c r="AE68">
+        <v>0.14142135476727299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.113980471229289</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2.00610046897318E-2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0.99999997605352897</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0.14142134895375999</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0.158332370705971</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2.5732313153301298E-2</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0.34357379215262901</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0.18140152924880201</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0.92726467918204802</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2.0061006435299299E-2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0.141421360144457</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0.99999997963353404</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2.0061005772133999E-2</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0.141421352680976</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>0.99999998785412403</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>2.0061005998531199E-2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0.14142135950372201</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0.99999998785418798</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1.803904747708E-2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>2.2982338057181001E-2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0.158246987750672</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0.16202693775673699</v>
+      </c>
+      <c r="Y74">
+        <v>0.158332408704248</v>
+      </c>
+      <c r="Z74">
+        <v>0.92726481064447697</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2.0061006431324298E-2</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0.141421361686456</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AE31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:AE75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3530,7 +6559,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6481,7 +9510,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE31" xr:uid="{569D1391-32DB-475E-85B8-A019CF5E59A2}"/>
   <conditionalFormatting sqref="B2:AE31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -6505,13 +9533,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6519,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6535,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -6546,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6554,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6570,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6578,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6586,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6594,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6602,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6618,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6626,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6634,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6642,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6650,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6658,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6666,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6674,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6682,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6698,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6706,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6714,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6722,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6730,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6746,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6759,7 +9791,7 @@
   <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection sqref="A1:AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12675,4 +15707,2974 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAAC918-4FEF-45C4-982E-BF2D4528BBE7}">
+  <dimension ref="A1:AE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="99" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.9267114063263302E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.392539707311513</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.56670060068455697</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1.7348617087081099E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.7080602506291499E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.69360258316835E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.35722071693937E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.6534027674224603E-2</v>
+      </c>
+      <c r="N2">
+        <v>0.58045415173609105</v>
+      </c>
+      <c r="O2">
+        <v>3.3018813971147101E-2</v>
+      </c>
+      <c r="P2">
+        <v>3.61255190318307E-2</v>
+      </c>
+      <c r="Q2">
+        <v>4.3601458935597498E-2</v>
+      </c>
+      <c r="R2">
+        <v>4.0283130814430398E-2</v>
+      </c>
+      <c r="S2">
+        <v>0.43881777607251998</v>
+      </c>
+      <c r="T2">
+        <v>1.87505824427446E-2</v>
+      </c>
+      <c r="U2">
+        <v>0.57048545001811002</v>
+      </c>
+      <c r="V2">
+        <v>2.1073470591180199E-2</v>
+      </c>
+      <c r="W2">
+        <v>2.6551518721583098E-2</v>
+      </c>
+      <c r="X2">
+        <v>1.9041254398634501E-2</v>
+      </c>
+      <c r="Y2">
+        <v>2.3316177598263699E-2</v>
+      </c>
+      <c r="Z2">
+        <v>2.2508770511160601E-2</v>
+      </c>
+      <c r="AA2">
+        <v>2.56676802000581E-2</v>
+      </c>
+      <c r="AB2">
+        <v>0.57193079602048802</v>
+      </c>
+      <c r="AC2">
+        <v>1.99920975795514E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1.9293314698565E-2</v>
+      </c>
+      <c r="AE2">
+        <v>0.56887251208018597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>6.9267114063263302E-2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8.3151874121794006E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.9910903765352101E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.00488795973228E-2</v>
+      </c>
+      <c r="G3">
+        <v>6.5906703894698201E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.9909626323535697E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.7364558202331198E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.7010769607635495E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.6950008920303297E-2</v>
+      </c>
+      <c r="L3">
+        <v>8.3495896324491198E-2</v>
+      </c>
+      <c r="M3">
+        <v>8.63458017732366E-2</v>
+      </c>
+      <c r="N3">
+        <v>9.2081533173425698E-2</v>
+      </c>
+      <c r="O3">
+        <v>8.2808228033109499E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.99739653918014504</v>
+      </c>
+      <c r="Q3">
+        <v>9.3298944553933894E-2</v>
+      </c>
+      <c r="R3">
+        <v>9.0155816546287404E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.45477110736646997</v>
+      </c>
+      <c r="T3">
+        <v>0.99397402988139805</v>
+      </c>
+      <c r="U3">
+        <v>7.27899057478157E-2</v>
+      </c>
+      <c r="V3">
+        <v>7.0940777529873794E-2</v>
+      </c>
+      <c r="W3">
+        <v>7.64511836393688E-2</v>
+      </c>
+      <c r="X3">
+        <v>6.89104783266416E-2</v>
+      </c>
+      <c r="Y3">
+        <v>7.3307692000883398E-2</v>
+      </c>
+      <c r="Z3">
+        <v>7.2506356652090001E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.5515563658293802E-2</v>
+      </c>
+      <c r="AB3">
+        <v>7.5484897527692801E-2</v>
+      </c>
+      <c r="AC3">
+        <v>0.99426441352003303</v>
+      </c>
+      <c r="AD3">
+        <v>6.9162541717216794E-2</v>
+      </c>
+      <c r="AE3">
+        <v>6.9838768475521507E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>0.392539707311513</v>
+      </c>
+      <c r="C4">
+        <v>8.3151874121794006E-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.62643131829776899</v>
+      </c>
+      <c r="F4">
+        <v>0.334282915785173</v>
+      </c>
+      <c r="G4">
+        <v>0.71481659784997098</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.35068392192461001</v>
+      </c>
+      <c r="J4">
+        <v>2.050178254233E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.35030282308753102</v>
+      </c>
+      <c r="L4">
+        <v>0.36559462397841702</v>
+      </c>
+      <c r="M4">
+        <v>4.3878644684055598E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.73052431088215197</v>
+      </c>
+      <c r="O4">
+        <v>3.9617540136261703E-2</v>
+      </c>
+      <c r="P4">
+        <v>4.3364392901633103E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.65628278862914202</v>
+      </c>
+      <c r="R4">
+        <v>0.37164859308534098</v>
+      </c>
+      <c r="S4">
+        <v>0.52647885627200997</v>
+      </c>
+      <c r="T4">
+        <v>2.24982093870651E-2</v>
+      </c>
+      <c r="U4">
+        <v>0.71915844820563302</v>
+      </c>
+      <c r="V4">
+        <v>2.5292453199570301E-2</v>
+      </c>
+      <c r="W4">
+        <v>3.1877017502913899E-2</v>
+      </c>
+      <c r="X4">
+        <v>2.2852391521873801E-2</v>
+      </c>
+      <c r="Y4">
+        <v>0.35621621421891903</v>
+      </c>
+      <c r="Z4">
+        <v>0.35547328561767799</v>
+      </c>
+      <c r="AA4">
+        <v>3.07985323254494E-2</v>
+      </c>
+      <c r="AB4">
+        <v>0.72081792728224403</v>
+      </c>
+      <c r="AC4">
+        <v>2.3985711911884401E-2</v>
+      </c>
+      <c r="AD4">
+        <v>2.3173623143974E-2</v>
+      </c>
+      <c r="AE4">
+        <v>0.71732045019384505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.9910903765352101E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.62643131829776799</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1.15330934525796E-2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.25001348004006E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.2306290476580099E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.2205398049344601E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.4190714455317099E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.6329951402577E-2</v>
+      </c>
+      <c r="N5">
+        <v>3.0518802717334401E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.3791157046465498E-2</v>
+      </c>
+      <c r="P5">
+        <v>2.6039703754936801E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.99554800998858795</v>
+      </c>
+      <c r="R5">
+        <v>2.9044153442572999E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.31622775865455799</v>
+      </c>
+      <c r="T5">
+        <v>1.3499248575064E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.6512037782046199E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.51898403882419E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.9139805133375699E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.37141334001494E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.6802268350550601E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.62113891018115E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.8498714995416901E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.8463702477839499E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.43932866404506E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.39029387532942E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.4378752572836301E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5.00488795973228E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.334282915785173</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.15333353494298E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.99929653765527304</v>
+      </c>
+      <c r="J6">
+        <v>1.23269961699449E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.99932967749784296</v>
+      </c>
+      <c r="L6">
+        <v>0.997362075717664</v>
+      </c>
+      <c r="M6">
+        <v>2.6425473194336802E-2</v>
+      </c>
+      <c r="N6">
+        <v>3.05308823544422E-2</v>
+      </c>
+      <c r="O6">
+        <v>2.37950635169429E-2</v>
+      </c>
+      <c r="P6">
+        <v>2.6076640475252801E-2</v>
+      </c>
+      <c r="Q6">
+        <v>3.1432334551431101E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.99619979138637005</v>
+      </c>
+      <c r="S6">
+        <v>0.31622775589052199</v>
+      </c>
+      <c r="T6">
+        <v>1.35145316038749E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.6516683003698199E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.51983178402555E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.9163558678756899E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.3726877867499499E-2</v>
+      </c>
+      <c r="Y6">
+        <v>0.99872851560327103</v>
+      </c>
+      <c r="Z6">
+        <v>0.99881596191233002</v>
+      </c>
+      <c r="AA6">
+        <v>1.8501409749733098E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1.8472292051652201E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.44012095841083E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.39550840205934E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.4389602668481201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.56670060068455697</v>
+      </c>
+      <c r="C7">
+        <v>6.5906703894698201E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.71481659784997098</v>
+      </c>
+      <c r="E7">
+        <v>1.15330934525796E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.15333353494298E-2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.1533069020639801E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.5176260453778E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.49689440630123E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.4854587831960599E-2</v>
+      </c>
+      <c r="L7">
+        <v>3.7919468999075098E-2</v>
+      </c>
+      <c r="M7">
+        <v>4.0255957510696903E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.99837124563191004</v>
+      </c>
+      <c r="O7">
+        <v>3.74856214081613E-2</v>
+      </c>
+      <c r="P7">
+        <v>3.9923935862984102E-2</v>
+      </c>
+      <c r="Q7">
+        <v>4.5793488940594797E-2</v>
+      </c>
+      <c r="R7">
+        <v>4.3181070118455997E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.348862471526447</v>
+      </c>
+      <c r="T7">
+        <v>2.6287768004193902E-2</v>
+      </c>
+      <c r="U7">
+        <v>0.99988819258804995</v>
+      </c>
+      <c r="V7">
+        <v>2.8103690608823E-2</v>
+      </c>
+      <c r="W7">
+        <v>3.2413747268871397E-2</v>
+      </c>
+      <c r="X7">
+        <v>2.6517154143365699E-2</v>
+      </c>
+      <c r="Y7">
+        <v>2.98633270412468E-2</v>
+      </c>
+      <c r="Z7">
+        <v>2.9239257576084501E-2</v>
+      </c>
+      <c r="AA7">
+        <v>3.1709122133836198E-2</v>
+      </c>
+      <c r="AB7">
+        <v>0.99978324845446398</v>
+      </c>
+      <c r="AC7">
+        <v>2.7264486015323299E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.6714621822853401E-2</v>
+      </c>
+      <c r="AE7">
+        <v>0.999963565417754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.9909626323535697E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.1533069020639801E-2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.2499480035047399E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.2305611733342501E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.22053337901029E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.41901169125254E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.6313956842923699E-2</v>
+      </c>
+      <c r="N8">
+        <v>3.0519134564900401E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.99744941615854399</v>
+      </c>
+      <c r="P8">
+        <v>2.6029155222228699E-2</v>
+      </c>
+      <c r="Q8">
+        <v>3.1422168144554903E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.9030725560870801E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.31622775832106198</v>
+      </c>
+      <c r="T8">
+        <v>1.35007168674644E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.6512066941503398E-2</v>
+      </c>
+      <c r="V8">
+        <v>1.5182578778005299E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.91261375509836E-2</v>
+      </c>
+      <c r="X8">
+        <v>1.37139614963236E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1.6802177773960501E-2</v>
+      </c>
+      <c r="Z8">
+        <v>1.6211256711678401E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.8496212668714498E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.8462549766534699E-2</v>
+      </c>
+      <c r="AC8">
+        <v>1.4392411375042199E-2</v>
+      </c>
+      <c r="AD8">
+        <v>1.39453142904323E-2</v>
+      </c>
+      <c r="AE8">
+        <v>1.4373101937434501E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>1.7348617087081099E-2</v>
+      </c>
+      <c r="C9">
+        <v>6.7364558202331198E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.35068392192461001</v>
+      </c>
+      <c r="E9">
+        <v>1.25001348004006E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.99929653765527304</v>
+      </c>
+      <c r="G9">
+        <v>2.5176260453778E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.2499480035047399E-2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2.60403634426883E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.99999961037546803</v>
+      </c>
+      <c r="L9">
+        <v>0.99938260233993603</v>
+      </c>
+      <c r="M9">
+        <v>4.1499939081926597E-2</v>
+      </c>
+      <c r="N9">
+        <v>4.6013895802389598E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.8625234152391497E-2</v>
+      </c>
+      <c r="P9">
+        <v>4.11233043337738E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.6996489122077899E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.99876528051939595</v>
+      </c>
+      <c r="S9">
+        <v>0.35158201259494298</v>
+      </c>
+      <c r="T9">
+        <v>2.7345181254717799E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.0646187596236701E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.9192716857171799E-2</v>
+      </c>
+      <c r="W9">
+        <v>3.35431941982803E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.7578045197600699E-2</v>
+      </c>
+      <c r="Y9">
+        <v>0.99991649088883305</v>
+      </c>
+      <c r="Z9">
+        <v>0.99993771550226296</v>
+      </c>
+      <c r="AA9">
+        <v>3.2818647482693801E-2</v>
+      </c>
+      <c r="AB9">
+        <v>3.27918932569123E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.8319235732665399E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.7824637282189101E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.8310496325902299E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1.7080602506291499E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.7010769607635495E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.050178254233E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.2306290476580099E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.23269961699449E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.4968944063012199E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.23056117333424E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.6040363442688199E-2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2.5714487619751099E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.88853394674595E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.99911196206424402</v>
+      </c>
+      <c r="N10">
+        <v>4.5767754161421502E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.8390442711008999E-2</v>
+      </c>
+      <c r="P10">
+        <v>4.0843814514194103E-2</v>
+      </c>
+      <c r="Q10">
+        <v>4.6737768099843001E-2</v>
+      </c>
+      <c r="R10">
+        <v>4.4153814917673499E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.35104307984170002</v>
+      </c>
+      <c r="T10">
+        <v>2.7118775119139401E-2</v>
+      </c>
+      <c r="U10">
+        <v>3.0428122327589398E-2</v>
+      </c>
+      <c r="V10">
+        <v>2.8960470942926399E-2</v>
+      </c>
+      <c r="W10">
+        <v>0.999789485974654</v>
+      </c>
+      <c r="X10">
+        <v>2.73466867423219E-2</v>
+      </c>
+      <c r="Y10">
+        <v>3.0767423502526599E-2</v>
+      </c>
+      <c r="Z10">
+        <v>3.0116570117675701E-2</v>
+      </c>
+      <c r="AA10">
+        <v>3.2591886673195097E-2</v>
+      </c>
+      <c r="AB10">
+        <v>3.2580003183317399E-2</v>
+      </c>
+      <c r="AC10">
+        <v>2.81089516974381E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.7558081761027101E-2</v>
+      </c>
+      <c r="AE10">
+        <v>2.8082073089400101E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>1.69360258316835E-2</v>
+      </c>
+      <c r="C11">
+        <v>6.6950008920303297E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.35030282308753102</v>
+      </c>
+      <c r="E11">
+        <v>1.2205398049344601E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.99932967749784296</v>
+      </c>
+      <c r="G11">
+        <v>2.4854587831960599E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.22053337901029E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.99999961037546803</v>
+      </c>
+      <c r="J11">
+        <v>2.5714487619751099E-2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.999350820619194</v>
+      </c>
+      <c r="M11">
+        <v>4.1141882287495303E-2</v>
+      </c>
+      <c r="N11">
+        <v>4.5648655464595199E-2</v>
+      </c>
+      <c r="O11">
+        <v>3.8275894204807002E-2</v>
+      </c>
+      <c r="P11">
+        <v>4.0762280402419797E-2</v>
+      </c>
+      <c r="Q11">
+        <v>4.66292141198262E-2</v>
+      </c>
+      <c r="R11">
+        <v>0.99872052365378405</v>
+      </c>
+      <c r="S11">
+        <v>0.35074543816746601</v>
+      </c>
+      <c r="T11">
+        <v>2.7012856492807099E-2</v>
+      </c>
+      <c r="U11">
+        <v>3.0312995271180001E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.8856934528073301E-2</v>
+      </c>
+      <c r="W11">
+        <v>3.32015630107967E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.72456753336137E-2</v>
+      </c>
+      <c r="Y11">
+        <v>0.99990453782161903</v>
+      </c>
+      <c r="Z11">
+        <v>0.99992735293536195</v>
+      </c>
+      <c r="AA11">
+        <v>3.2478770045905603E-2</v>
+      </c>
+      <c r="AB11">
+        <v>3.2454200005465297E-2</v>
+      </c>
+      <c r="AC11">
+        <v>2.7984849000225898E-2</v>
+      </c>
+      <c r="AD11">
+        <v>2.74953479611484E-2</v>
+      </c>
+      <c r="AE11">
+        <v>2.7982243365977599E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3.35722071693937E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.3495896324491198E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.36559462397841702</v>
+      </c>
+      <c r="E12">
+        <v>2.4190714455317099E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.997362075717664</v>
+      </c>
+      <c r="G12">
+        <v>3.7919468999075098E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.41901169125254E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.99938260233993603</v>
+      </c>
+      <c r="J12">
+        <v>3.88853394674595E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.999350820619194</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.5599819268519798E-2</v>
+      </c>
+      <c r="N12">
+        <v>6.0454538390194199E-2</v>
+      </c>
+      <c r="O12">
+        <v>5.2466134286887303E-2</v>
+      </c>
+      <c r="P12">
+        <v>5.51622324246153E-2</v>
+      </c>
+      <c r="Q12">
+        <v>6.1513730429369501E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.99989403572867697</v>
+      </c>
+      <c r="S12">
+        <v>0.38425501243716498</v>
+      </c>
+      <c r="T12">
+        <v>4.0262390499781101E-2</v>
+      </c>
+      <c r="U12">
+        <v>4.3838301757215398E-2</v>
+      </c>
+      <c r="V12">
+        <v>4.22618062346031E-2</v>
+      </c>
+      <c r="W12">
+        <v>4.7002544916615097E-2</v>
+      </c>
+      <c r="X12">
+        <v>4.0521563739774898E-2</v>
+      </c>
+      <c r="Y12">
+        <v>0.999753179289396</v>
+      </c>
+      <c r="Z12">
+        <v>0.99971238635597903</v>
+      </c>
+      <c r="AA12">
+        <v>4.6184943872479803E-2</v>
+      </c>
+      <c r="AB12">
+        <v>4.61593747249891E-2</v>
+      </c>
+      <c r="AC12">
+        <v>4.1317066796159797E-2</v>
+      </c>
+      <c r="AD12">
+        <v>4.0777867964529597E-2</v>
+      </c>
+      <c r="AE12">
+        <v>4.1310139876556101E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>3.6534027674224603E-2</v>
+      </c>
+      <c r="C13">
+        <v>8.63458017732366E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.3878644684055598E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.6329951402577E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.6425473194336802E-2</v>
+      </c>
+      <c r="G13">
+        <v>4.0255957510696903E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.6313956842923699E-2</v>
+      </c>
+      <c r="I13">
+        <v>4.1499939081926597E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.99911196206424402</v>
+      </c>
+      <c r="K13">
+        <v>4.1141882287495303E-2</v>
+      </c>
+      <c r="L13">
+        <v>5.5599819268519798E-2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>6.3087944704276103E-2</v>
+      </c>
+      <c r="O13">
+        <v>5.4974745460808001E-2</v>
+      </c>
+      <c r="P13">
+        <v>5.7671844373020698E-2</v>
+      </c>
+      <c r="Q13">
+        <v>6.4147322487736802E-2</v>
+      </c>
+      <c r="R13">
+        <v>6.13828785163541E-2</v>
+      </c>
+      <c r="S13">
+        <v>0.39018440557085898</v>
+      </c>
+      <c r="T13">
+        <v>4.2602580369009199E-2</v>
+      </c>
+      <c r="U13">
+        <v>4.6252848616844797E-2</v>
+      </c>
+      <c r="V13">
+        <v>4.4621370750391E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.99976611010904903</v>
+      </c>
+      <c r="X13">
+        <v>4.2856953991399098E-2</v>
+      </c>
+      <c r="Y13">
+        <v>4.66908408036079E-2</v>
+      </c>
+      <c r="Z13">
+        <v>4.5976800770500197E-2</v>
+      </c>
+      <c r="AA13">
+        <v>4.86105056704699E-2</v>
+      </c>
+      <c r="AB13">
+        <v>4.8614615051368798E-2</v>
+      </c>
+      <c r="AC13">
+        <v>4.3689039116040398E-2</v>
+      </c>
+      <c r="AD13">
+        <v>4.3082663573595803E-2</v>
+      </c>
+      <c r="AE13">
+        <v>4.3676501957157797E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>0.58045415173609105</v>
+      </c>
+      <c r="C14">
+        <v>9.2081533173425698E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.73052431088215197</v>
+      </c>
+      <c r="E14">
+        <v>3.0518802717334401E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.05308823544422E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.99837124563191004</v>
+      </c>
+      <c r="H14">
+        <v>3.0519134564900401E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.6013895802389598E-2</v>
+      </c>
+      <c r="J14">
+        <v>4.5767754161421502E-2</v>
+      </c>
+      <c r="K14">
+        <v>4.5648655464595199E-2</v>
+      </c>
+      <c r="L14">
+        <v>6.0454538390194199E-2</v>
+      </c>
+      <c r="M14">
+        <v>6.3087944704276103E-2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>5.9951296578667601E-2</v>
+      </c>
+      <c r="P14">
+        <v>6.2711143109645498E-2</v>
+      </c>
+      <c r="Q14">
+        <v>6.9353496536952303E-2</v>
+      </c>
+      <c r="R14">
+        <v>6.6411428902037106E-2</v>
+      </c>
+      <c r="S14">
+        <v>0.40176037388813401</v>
+      </c>
+      <c r="T14">
+        <v>4.7258679663738E-2</v>
+      </c>
+      <c r="U14">
+        <v>0.999112708295819</v>
+      </c>
+      <c r="V14">
+        <v>4.9320842722945402E-2</v>
+      </c>
+      <c r="W14">
+        <v>5.4207374353167699E-2</v>
+      </c>
+      <c r="X14">
+        <v>4.7519692714584998E-2</v>
+      </c>
+      <c r="Y14">
+        <v>5.1328421349557903E-2</v>
+      </c>
+      <c r="Z14">
+        <v>5.0618388643806099E-2</v>
+      </c>
+      <c r="AA14">
+        <v>5.3407928316102998E-2</v>
+      </c>
+      <c r="AB14">
+        <v>0.999342675342758</v>
+      </c>
+      <c r="AC14">
+        <v>4.83656554730768E-2</v>
+      </c>
+      <c r="AD14">
+        <v>4.7745757209033401E-2</v>
+      </c>
+      <c r="AE14">
+        <v>0.99882184912132399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>3.3018813971147101E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.2808228033109499E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.9617540136261703E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.3791157046465498E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.37950635169429E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.74856214081613E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.99744941615854399</v>
+      </c>
+      <c r="I15">
+        <v>3.8625234152391497E-2</v>
+      </c>
+      <c r="J15">
+        <v>3.8390442711008999E-2</v>
+      </c>
+      <c r="K15">
+        <v>3.8275894204807002E-2</v>
+      </c>
+      <c r="L15">
+        <v>5.2466134286887303E-2</v>
+      </c>
+      <c r="M15">
+        <v>5.4974745460808001E-2</v>
+      </c>
+      <c r="N15">
+        <v>5.9951296578667601E-2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>5.4635607628216301E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.1007416533080901E-2</v>
+      </c>
+      <c r="R15">
+        <v>5.81873360996304E-2</v>
+      </c>
+      <c r="S15">
+        <v>0.38313580184941198</v>
+      </c>
+      <c r="T15">
+        <v>3.9806980472441897E-2</v>
+      </c>
+      <c r="U15">
+        <v>4.3384827320855697E-2</v>
+      </c>
+      <c r="V15">
+        <v>4.1801954006414503E-2</v>
+      </c>
+      <c r="W15">
+        <v>4.6471257077042902E-2</v>
+      </c>
+      <c r="X15">
+        <v>4.0059356493380202E-2</v>
+      </c>
+      <c r="Y15">
+        <v>4.3722608761554697E-2</v>
+      </c>
+      <c r="Z15">
+        <v>4.3023363493231402E-2</v>
+      </c>
+      <c r="AA15">
+        <v>4.5727935999269199E-2</v>
+      </c>
+      <c r="AB15">
+        <v>4.5694892404435403E-2</v>
+      </c>
+      <c r="AC15">
+        <v>4.08637805441587E-2</v>
+      </c>
+      <c r="AD15">
+        <v>4.0330589908967401E-2</v>
+      </c>
+      <c r="AE15">
+        <v>4.0851692395151101E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3.61255190318307E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.99739653918014604</v>
+      </c>
+      <c r="D16">
+        <v>4.3364392901633103E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.6039703754936801E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.6076640475252801E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.9923935862984102E-2</v>
+      </c>
+      <c r="H16">
+        <v>2.6029155222228699E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.11233043337738E-2</v>
+      </c>
+      <c r="J16">
+        <v>4.0843814514194103E-2</v>
+      </c>
+      <c r="K16">
+        <v>4.0762280402419797E-2</v>
+      </c>
+      <c r="L16">
+        <v>5.51622324246153E-2</v>
+      </c>
+      <c r="M16">
+        <v>5.7671844373020698E-2</v>
+      </c>
+      <c r="N16">
+        <v>6.2711143109645498E-2</v>
+      </c>
+      <c r="O16">
+        <v>5.4635607628216301E-2</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>6.3785379504659206E-2</v>
+      </c>
+      <c r="R16">
+        <v>6.0965625961834601E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.38936395781046601</v>
+      </c>
+      <c r="T16">
+        <v>0.99929084887043595</v>
+      </c>
+      <c r="U16">
+        <v>4.5911125481790001E-2</v>
+      </c>
+      <c r="V16">
+        <v>4.4306536855758902E-2</v>
+      </c>
+      <c r="W16">
+        <v>4.9057944306343401E-2</v>
+      </c>
+      <c r="X16">
+        <v>4.2540753263882701E-2</v>
+      </c>
+      <c r="Y16">
+        <v>4.6293001164462402E-2</v>
+      </c>
+      <c r="Z16">
+        <v>4.5597519182582397E-2</v>
+      </c>
+      <c r="AA16">
+        <v>4.8288406485957801E-2</v>
+      </c>
+      <c r="AB16">
+        <v>4.8256024528171799E-2</v>
+      </c>
+      <c r="AC16">
+        <v>0.99938826987630902</v>
+      </c>
+      <c r="AD16">
+        <v>4.2758022680469701E-2</v>
+      </c>
+      <c r="AE16">
+        <v>4.3343875400286003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>4.3601458935597498E-2</v>
+      </c>
+      <c r="C17">
+        <v>9.3298944553933894E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.65628278862914202</v>
+      </c>
+      <c r="E17">
+        <v>0.99554800998858795</v>
+      </c>
+      <c r="F17">
+        <v>3.1432334551431101E-2</v>
+      </c>
+      <c r="G17">
+        <v>4.5793488940594797E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.1422168144554903E-2</v>
+      </c>
+      <c r="I17">
+        <v>4.6996489122077899E-2</v>
+      </c>
+      <c r="J17">
+        <v>4.6737768099843001E-2</v>
+      </c>
+      <c r="K17">
+        <v>4.66292141198262E-2</v>
+      </c>
+      <c r="L17">
+        <v>6.1513730429369501E-2</v>
+      </c>
+      <c r="M17">
+        <v>6.4147322487736802E-2</v>
+      </c>
+      <c r="N17">
+        <v>6.9353496536952303E-2</v>
+      </c>
+      <c r="O17">
+        <v>6.1007416533080797E-2</v>
+      </c>
+      <c r="P17">
+        <v>6.3785379504659206E-2</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>6.7524243594664995E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.40423858930805001</v>
+      </c>
+      <c r="T17">
+        <v>4.8221464696467702E-2</v>
+      </c>
+      <c r="U17">
+        <v>5.1982182592884701E-2</v>
+      </c>
+      <c r="V17">
+        <v>5.0320335821558801E-2</v>
+      </c>
+      <c r="W17">
+        <v>5.52276752050814E-2</v>
+      </c>
+      <c r="X17">
+        <v>4.8487543662358398E-2</v>
+      </c>
+      <c r="Y17">
+        <v>5.2343315956327199E-2</v>
+      </c>
+      <c r="Z17">
+        <v>5.1610039832563501E-2</v>
+      </c>
+      <c r="AA17">
+        <v>5.44308660569775E-2</v>
+      </c>
+      <c r="AB17">
+        <v>5.4406525236920002E-2</v>
+      </c>
+      <c r="AC17">
+        <v>4.9332473132536199E-2</v>
+      </c>
+      <c r="AD17">
+        <v>4.8723837187104102E-2</v>
+      </c>
+      <c r="AE17">
+        <v>4.9330507102969899E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>4.0283130814430398E-2</v>
+      </c>
+      <c r="C18">
+        <v>9.0155816546287404E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.37164859308534098</v>
+      </c>
+      <c r="E18">
+        <v>2.9044153442572999E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.99619979138637005</v>
+      </c>
+      <c r="G18">
+        <v>4.3181070118455997E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.9030725560870801E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.99876528051939595</v>
+      </c>
+      <c r="J18">
+        <v>4.4153814917673499E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.99872052365378405</v>
+      </c>
+      <c r="L18">
+        <v>0.99989403572867697</v>
+      </c>
+      <c r="M18">
+        <v>6.1382878516354003E-2</v>
+      </c>
+      <c r="N18">
+        <v>6.6411428902037106E-2</v>
+      </c>
+      <c r="O18">
+        <v>5.81873360996304E-2</v>
+      </c>
+      <c r="P18">
+        <v>6.0965625961834601E-2</v>
+      </c>
+      <c r="Q18">
+        <v>6.7524243594664995E-2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.39765405323654301</v>
+      </c>
+      <c r="T18">
+        <v>4.5606484856445501E-2</v>
+      </c>
+      <c r="U18">
+        <v>4.9283795072284503E-2</v>
+      </c>
+      <c r="V18">
+        <v>4.7665242997905997E-2</v>
+      </c>
+      <c r="W18">
+        <v>5.2522963841443997E-2</v>
+      </c>
+      <c r="X18">
+        <v>4.5863118919975902E-2</v>
+      </c>
+      <c r="Y18">
+        <v>0.99932391420876299</v>
+      </c>
+      <c r="Z18">
+        <v>0.99925732133922995</v>
+      </c>
+      <c r="AA18">
+        <v>5.1720564755908603E-2</v>
+      </c>
+      <c r="AB18">
+        <v>5.1676701522722197E-2</v>
+      </c>
+      <c r="AC18">
+        <v>4.6694178000505203E-2</v>
+      </c>
+      <c r="AD18">
+        <v>4.6144364526588599E-2</v>
+      </c>
+      <c r="AE18">
+        <v>4.6676783769208502E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>0.43881777607251998</v>
+      </c>
+      <c r="C19">
+        <v>0.45477110736647097</v>
+      </c>
+      <c r="D19">
+        <v>0.52647885627200997</v>
+      </c>
+      <c r="E19">
+        <v>0.31622775865455799</v>
+      </c>
+      <c r="F19">
+        <v>0.31622775589052199</v>
+      </c>
+      <c r="G19">
+        <v>0.348862471526447</v>
+      </c>
+      <c r="H19">
+        <v>0.31622775832106198</v>
+      </c>
+      <c r="I19">
+        <v>0.35158201259494298</v>
+      </c>
+      <c r="J19">
+        <v>0.35104307984170102</v>
+      </c>
+      <c r="K19">
+        <v>0.35074543816746601</v>
+      </c>
+      <c r="L19">
+        <v>0.38425501243716598</v>
+      </c>
+      <c r="M19">
+        <v>0.39018440557085898</v>
+      </c>
+      <c r="N19">
+        <v>0.40176037388813401</v>
+      </c>
+      <c r="O19">
+        <v>0.38313580184941198</v>
+      </c>
+      <c r="P19">
+        <v>0.38936395781046601</v>
+      </c>
+      <c r="Q19">
+        <v>0.40423858930805001</v>
+      </c>
+      <c r="R19">
+        <v>0.39765405323654401</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.35440604997412201</v>
+      </c>
+      <c r="U19">
+        <v>0.36283693972238901</v>
+      </c>
+      <c r="V19">
+        <v>0.35912194789103302</v>
+      </c>
+      <c r="W19">
+        <v>0.37018144794587299</v>
+      </c>
+      <c r="X19">
+        <v>0.355000821232551</v>
+      </c>
+      <c r="Y19">
+        <v>0.363650770637445</v>
+      </c>
+      <c r="Z19">
+        <v>0.36200411740369498</v>
+      </c>
+      <c r="AA19">
+        <v>0.36838661429685998</v>
+      </c>
+      <c r="AB19">
+        <v>0.368299361585399</v>
+      </c>
+      <c r="AC19">
+        <v>0.35691258908802898</v>
+      </c>
+      <c r="AD19">
+        <v>0.35554285217758902</v>
+      </c>
+      <c r="AE19">
+        <v>0.35684882066412299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1.87505824427446E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.99397402988139805</v>
+      </c>
+      <c r="D20">
+        <v>2.24982093870651E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.3499248575064E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.35145316038749E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.6287768004193902E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.35007168674644E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.7345181254717799E-2</v>
+      </c>
+      <c r="J20">
+        <v>2.7118775119139502E-2</v>
+      </c>
+      <c r="K20">
+        <v>2.7012856492807099E-2</v>
+      </c>
+      <c r="L20">
+        <v>4.0262390499781101E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.2602580369009199E-2</v>
+      </c>
+      <c r="N20">
+        <v>4.7258679663738E-2</v>
+      </c>
+      <c r="O20">
+        <v>3.9806980472441897E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.99929084887043595</v>
+      </c>
+      <c r="Q20">
+        <v>4.8221464696467702E-2</v>
+      </c>
+      <c r="R20">
+        <v>4.5606484856445501E-2</v>
+      </c>
+      <c r="S20">
+        <v>0.35440604997412201</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>3.1794643314210801E-2</v>
+      </c>
+      <c r="V20">
+        <v>3.0308794508386101E-2</v>
+      </c>
+      <c r="W20">
+        <v>3.4675428314864698E-2</v>
+      </c>
+      <c r="X20">
+        <v>2.8676311253288098E-2</v>
+      </c>
+      <c r="Y20">
+        <v>3.2100287879986901E-2</v>
+      </c>
+      <c r="Z20">
+        <v>3.1461522594453201E-2</v>
+      </c>
+      <c r="AA20">
+        <v>3.3963854792705001E-2</v>
+      </c>
+      <c r="AB20">
+        <v>3.39518616752491E-2</v>
+      </c>
+      <c r="AC20">
+        <v>0.99999639478814295</v>
+      </c>
+      <c r="AD20">
+        <v>2.8874411221519701E-2</v>
+      </c>
+      <c r="AE20">
+        <v>2.9433183977448901E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>0.57048545001811002</v>
+      </c>
+      <c r="C21">
+        <v>7.27899057478157E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.71915844820563302</v>
+      </c>
+      <c r="E21">
+        <v>1.6512037782046199E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.6516683003698199E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.99988819258804995</v>
+      </c>
+      <c r="H21">
+        <v>1.6512066941503398E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.0646187596236701E-2</v>
+      </c>
+      <c r="J21">
+        <v>3.0428122327589499E-2</v>
+      </c>
+      <c r="K21">
+        <v>3.0312995271180001E-2</v>
+      </c>
+      <c r="L21">
+        <v>4.3838301757215398E-2</v>
+      </c>
+      <c r="M21">
+        <v>4.6252848616844797E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.999112708295819</v>
+      </c>
+      <c r="O21">
+        <v>4.3384827320855697E-2</v>
+      </c>
+      <c r="P21">
+        <v>4.5911125481790001E-2</v>
+      </c>
+      <c r="Q21">
+        <v>5.1982182592884701E-2</v>
+      </c>
+      <c r="R21">
+        <v>4.9283795072284503E-2</v>
+      </c>
+      <c r="S21">
+        <v>0.36283693972238801</v>
+      </c>
+      <c r="T21">
+        <v>3.1794643314210801E-2</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>3.3672579110841802E-2</v>
+      </c>
+      <c r="W21">
+        <v>3.81360120607733E-2</v>
+      </c>
+      <c r="X21">
+        <v>3.2028750377936198E-2</v>
+      </c>
+      <c r="Y21">
+        <v>3.5499186208753801E-2</v>
+      </c>
+      <c r="Z21">
+        <v>3.48523888233397E-2</v>
+      </c>
+      <c r="AA21">
+        <v>3.7406314654681701E-2</v>
+      </c>
+      <c r="AB21">
+        <v>0.99998278388426098</v>
+      </c>
+      <c r="AC21">
+        <v>3.2805806818792797E-2</v>
+      </c>
+      <c r="AD21">
+        <v>3.2235244713659503E-2</v>
+      </c>
+      <c r="AE21">
+        <v>0.99997936491425898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>2.1073470591180199E-2</v>
+      </c>
+      <c r="C22">
+        <v>7.0940777529873794E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.5292453199570301E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.51898403882419E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.51983178402555E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.8103690608823E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.5182578778005299E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.9192716857171799E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.8960470942926399E-2</v>
+      </c>
+      <c r="K22">
+        <v>2.8856934528073301E-2</v>
+      </c>
+      <c r="L22">
+        <v>4.22618062346031E-2</v>
+      </c>
+      <c r="M22">
+        <v>4.4621370750391E-2</v>
+      </c>
+      <c r="N22">
+        <v>4.9320842722945499E-2</v>
+      </c>
+      <c r="O22">
+        <v>4.1801954006414503E-2</v>
+      </c>
+      <c r="P22">
+        <v>4.4306536855758902E-2</v>
+      </c>
+      <c r="Q22">
+        <v>5.0320335821558801E-2</v>
+      </c>
+      <c r="R22">
+        <v>4.7665242997905997E-2</v>
+      </c>
+      <c r="S22">
+        <v>0.35912194789103302</v>
+      </c>
+      <c r="T22">
+        <v>3.0308794508386101E-2</v>
+      </c>
+      <c r="U22">
+        <v>3.3672579110841802E-2</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>3.6597194861533802E-2</v>
+      </c>
+      <c r="X22">
+        <v>3.0535561506083601E-2</v>
+      </c>
+      <c r="Y22">
+        <v>3.4009382419046601E-2</v>
+      </c>
+      <c r="Z22">
+        <v>3.3344663823289003E-2</v>
+      </c>
+      <c r="AA22">
+        <v>3.5883314791898498E-2</v>
+      </c>
+      <c r="AB22">
+        <v>3.5855897911235203E-2</v>
+      </c>
+      <c r="AC22">
+        <v>3.1301908923458403E-2</v>
+      </c>
+      <c r="AD22">
+        <v>3.07374197826925E-2</v>
+      </c>
+      <c r="AE22">
+        <v>3.1282521064060501E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>2.6551518721583098E-2</v>
+      </c>
+      <c r="C23">
+        <v>7.64511836393688E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.1877017502913899E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.9139805133375699E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.9163558678756899E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.2413747268871397E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.91261375509836E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.35431941982803E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.999789485974654</v>
+      </c>
+      <c r="K23">
+        <v>3.32015630107967E-2</v>
+      </c>
+      <c r="L23">
+        <v>4.7002544916615097E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.99976611010904903</v>
+      </c>
+      <c r="N23">
+        <v>5.4207374353167699E-2</v>
+      </c>
+      <c r="O23">
+        <v>4.6471257077042902E-2</v>
+      </c>
+      <c r="P23">
+        <v>4.9057944306343401E-2</v>
+      </c>
+      <c r="Q23">
+        <v>5.52276752050814E-2</v>
+      </c>
+      <c r="R23">
+        <v>5.2522963841443997E-2</v>
+      </c>
+      <c r="S23">
+        <v>0.37018144794587199</v>
+      </c>
+      <c r="T23">
+        <v>3.4675428314864698E-2</v>
+      </c>
+      <c r="U23">
+        <v>3.81360120607733E-2</v>
+      </c>
+      <c r="V23">
+        <v>3.6597194861533802E-2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>3.4898863833489002E-2</v>
+      </c>
+      <c r="Y23">
+        <v>3.8497333210505497E-2</v>
+      </c>
+      <c r="Z23">
+        <v>3.7815542270075803E-2</v>
+      </c>
+      <c r="AA23">
+        <v>4.0433662087240398E-2</v>
+      </c>
+      <c r="AB23">
+        <v>4.0390589144349398E-2</v>
+      </c>
+      <c r="AC23">
+        <v>3.5712699534286303E-2</v>
+      </c>
+      <c r="AD23">
+        <v>3.5158343790256001E-2</v>
+      </c>
+      <c r="AE23">
+        <v>3.5677283429108898E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>1.9041254398634501E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.89104783266416E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.2852391521873801E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.37141334001494E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.3726877867499499E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.6517154143365699E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.37139614963236E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.7578045197600699E-2</v>
+      </c>
+      <c r="J24">
+        <v>2.73466867423219E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.72456753336137E-2</v>
+      </c>
+      <c r="L24">
+        <v>4.0521563739774898E-2</v>
+      </c>
+      <c r="M24">
+        <v>4.2856953991399098E-2</v>
+      </c>
+      <c r="N24">
+        <v>4.7519692714584998E-2</v>
+      </c>
+      <c r="O24">
+        <v>4.0059356493380202E-2</v>
+      </c>
+      <c r="P24">
+        <v>4.2540753263882701E-2</v>
+      </c>
+      <c r="Q24">
+        <v>4.8487543662358398E-2</v>
+      </c>
+      <c r="R24">
+        <v>4.5863118919975902E-2</v>
+      </c>
+      <c r="S24">
+        <v>0.355000821232551</v>
+      </c>
+      <c r="T24">
+        <v>2.8676311253288098E-2</v>
+      </c>
+      <c r="U24">
+        <v>3.2028750377936198E-2</v>
+      </c>
+      <c r="V24">
+        <v>3.0535561506083601E-2</v>
+      </c>
+      <c r="W24">
+        <v>3.4898863833489002E-2</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>3.2340399755925203E-2</v>
+      </c>
+      <c r="Z24">
+        <v>3.1685656232561303E-2</v>
+      </c>
+      <c r="AA24">
+        <v>3.4202623958806501E-2</v>
+      </c>
+      <c r="AB24">
+        <v>3.41895854929474E-2</v>
+      </c>
+      <c r="AC24">
+        <v>2.9664805425964301E-2</v>
+      </c>
+      <c r="AD24">
+        <v>2.91076185237014E-2</v>
+      </c>
+      <c r="AE24">
+        <v>2.9663098879378701E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>2.3316177598263699E-2</v>
+      </c>
+      <c r="C25">
+        <v>7.3307692000883398E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.35621621421891903</v>
+      </c>
+      <c r="E25">
+        <v>1.6802268350550601E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.99872851560327103</v>
+      </c>
+      <c r="G25">
+        <v>2.98633270412468E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.6802177773960501E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.99991649088883305</v>
+      </c>
+      <c r="J25">
+        <v>3.0767423502526599E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.99990453782161903</v>
+      </c>
+      <c r="L25">
+        <v>0.999753179289396</v>
+      </c>
+      <c r="M25">
+        <v>4.66908408036079E-2</v>
+      </c>
+      <c r="N25">
+        <v>5.1328421349558E-2</v>
+      </c>
+      <c r="O25">
+        <v>4.3722608761554697E-2</v>
+      </c>
+      <c r="P25">
+        <v>4.6293001164462402E-2</v>
+      </c>
+      <c r="Q25">
+        <v>5.2343315956327199E-2</v>
+      </c>
+      <c r="R25">
+        <v>0.99932391420876299</v>
+      </c>
+      <c r="S25">
+        <v>0.363650770637445</v>
+      </c>
+      <c r="T25">
+        <v>3.2100287879986901E-2</v>
+      </c>
+      <c r="U25">
+        <v>3.5499186208753801E-2</v>
+      </c>
+      <c r="V25">
+        <v>3.4009382419046698E-2</v>
+      </c>
+      <c r="W25">
+        <v>3.8497333210505497E-2</v>
+      </c>
+      <c r="X25">
+        <v>3.2340399755925203E-2</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0.99999844103762703</v>
+      </c>
+      <c r="AA25">
+        <v>3.7742659875676203E-2</v>
+      </c>
+      <c r="AB25">
+        <v>3.7709714473225103E-2</v>
+      </c>
+      <c r="AC25">
+        <v>3.3104137911877801E-2</v>
+      </c>
+      <c r="AD25">
+        <v>3.2596007222764199E-2</v>
+      </c>
+      <c r="AE25">
+        <v>3.3092351995149802E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>2.2508770511160601E-2</v>
+      </c>
+      <c r="C26">
+        <v>7.2506356652090001E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.35547328561767799</v>
+      </c>
+      <c r="E26">
+        <v>1.62113891018115E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.99881596191233002</v>
+      </c>
+      <c r="G26">
+        <v>2.9239257576084501E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.6211256711678401E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.99993771550226296</v>
+      </c>
+      <c r="J26">
+        <v>3.0116570117675701E-2</v>
+      </c>
+      <c r="K26">
+        <v>0.99992735293536195</v>
+      </c>
+      <c r="L26">
+        <v>0.99971238635597903</v>
+      </c>
+      <c r="M26">
+        <v>4.5976800770500197E-2</v>
+      </c>
+      <c r="N26">
+        <v>5.0618388643806203E-2</v>
+      </c>
+      <c r="O26">
+        <v>4.3023363493231402E-2</v>
+      </c>
+      <c r="P26">
+        <v>4.5597519182582397E-2</v>
+      </c>
+      <c r="Q26">
+        <v>5.1610039832563501E-2</v>
+      </c>
+      <c r="R26">
+        <v>0.99925732133922995</v>
+      </c>
+      <c r="S26">
+        <v>0.36200411740369398</v>
+      </c>
+      <c r="T26">
+        <v>3.1461522594453201E-2</v>
+      </c>
+      <c r="U26">
+        <v>3.48523888233397E-2</v>
+      </c>
+      <c r="V26">
+        <v>3.3344663823289003E-2</v>
+      </c>
+      <c r="W26">
+        <v>3.7815542270075803E-2</v>
+      </c>
+      <c r="X26">
+        <v>3.1685656232561303E-2</v>
+      </c>
+      <c r="Y26">
+        <v>0.99999844103762703</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>3.7063906399062603E-2</v>
+      </c>
+      <c r="AB26">
+        <v>3.7054036934862603E-2</v>
+      </c>
+      <c r="AC26">
+        <v>3.24612964604684E-2</v>
+      </c>
+      <c r="AD26">
+        <v>3.19380420801317E-2</v>
+      </c>
+      <c r="AE26">
+        <v>3.2455299581906599E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>2.56676802000581E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.5515563658293802E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.07985323254494E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.8498714995416901E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.8501409749733098E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.1709122133836198E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.8496212668714498E-2</v>
+      </c>
+      <c r="I27">
+        <v>3.2818647482693801E-2</v>
+      </c>
+      <c r="J27">
+        <v>3.2591886673195097E-2</v>
+      </c>
+      <c r="K27">
+        <v>3.2478770045905603E-2</v>
+      </c>
+      <c r="L27">
+        <v>4.6184943872479803E-2</v>
+      </c>
+      <c r="M27">
+        <v>4.86105056704699E-2</v>
+      </c>
+      <c r="N27">
+        <v>5.3407928316103102E-2</v>
+      </c>
+      <c r="O27">
+        <v>4.5727935999269199E-2</v>
+      </c>
+      <c r="P27">
+        <v>4.8288406485957801E-2</v>
+      </c>
+      <c r="Q27">
+        <v>5.44308660569775E-2</v>
+      </c>
+      <c r="R27">
+        <v>5.17205647559087E-2</v>
+      </c>
+      <c r="S27">
+        <v>0.36838661429685998</v>
+      </c>
+      <c r="T27">
+        <v>3.3963854792705001E-2</v>
+      </c>
+      <c r="U27">
+        <v>3.7406314654681701E-2</v>
+      </c>
+      <c r="V27">
+        <v>3.5883314791898498E-2</v>
+      </c>
+      <c r="W27">
+        <v>4.0433662087240398E-2</v>
+      </c>
+      <c r="X27">
+        <v>3.4202623958806501E-2</v>
+      </c>
+      <c r="Y27">
+        <v>3.7742659875676203E-2</v>
+      </c>
+      <c r="Z27">
+        <v>3.7063906399062603E-2</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>3.9641102640796101E-2</v>
+      </c>
+      <c r="AC27">
+        <v>3.4984790933621703E-2</v>
+      </c>
+      <c r="AD27">
+        <v>0.99990504712817296</v>
+      </c>
+      <c r="AE27">
+        <v>3.4958696246408301E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0.57193079602048802</v>
+      </c>
+      <c r="C28">
+        <v>7.5484897527692801E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.72081792728224403</v>
+      </c>
+      <c r="E28">
+        <v>1.8463702477839499E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.8472292051652201E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.99978324845446398</v>
+      </c>
+      <c r="H28">
+        <v>1.8462549766534699E-2</v>
+      </c>
+      <c r="I28">
+        <v>3.27918932569123E-2</v>
+      </c>
+      <c r="J28">
+        <v>3.2580003183317399E-2</v>
+      </c>
+      <c r="K28">
+        <v>3.2454200005465297E-2</v>
+      </c>
+      <c r="L28">
+        <v>4.61593747249891E-2</v>
+      </c>
+      <c r="M28">
+        <v>4.8614615051368798E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.999342675342758</v>
+      </c>
+      <c r="O28">
+        <v>4.5694892404435403E-2</v>
+      </c>
+      <c r="P28">
+        <v>4.8256024528171799E-2</v>
+      </c>
+      <c r="Q28">
+        <v>5.4406525236920002E-2</v>
+      </c>
+      <c r="R28">
+        <v>5.1676701522722197E-2</v>
+      </c>
+      <c r="S28">
+        <v>0.368299361585399</v>
+      </c>
+      <c r="T28">
+        <v>3.39518616752491E-2</v>
+      </c>
+      <c r="U28">
+        <v>0.99998278388426098</v>
+      </c>
+      <c r="V28">
+        <v>3.5855897911235203E-2</v>
+      </c>
+      <c r="W28">
+        <v>4.0390589144349398E-2</v>
+      </c>
+      <c r="X28">
+        <v>3.41895854929474E-2</v>
+      </c>
+      <c r="Y28">
+        <v>3.7709714473225103E-2</v>
+      </c>
+      <c r="Z28">
+        <v>3.7054036934862603E-2</v>
+      </c>
+      <c r="AA28">
+        <v>3.9641102640796101E-2</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>3.4976484323528602E-2</v>
+      </c>
+      <c r="AD28">
+        <v>3.4401052759978297E-2</v>
+      </c>
+      <c r="AE28">
+        <v>0.99992455622281495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.99920975795514E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.99426441352003303</v>
+      </c>
+      <c r="D29">
+        <v>2.3985711911884401E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.43932866404506E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.44012095841083E-2</v>
+      </c>
+      <c r="G29">
+        <v>2.7264486015323299E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.4392411375042199E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.8319235732665302E-2</v>
+      </c>
+      <c r="J29">
+        <v>2.81089516974381E-2</v>
+      </c>
+      <c r="K29">
+        <v>2.7984849000225898E-2</v>
+      </c>
+      <c r="L29">
+        <v>4.1317066796159797E-2</v>
+      </c>
+      <c r="M29">
+        <v>4.3689039116040398E-2</v>
+      </c>
+      <c r="N29">
+        <v>4.83656554730768E-2</v>
+      </c>
+      <c r="O29">
+        <v>4.08637805441587E-2</v>
+      </c>
+      <c r="P29">
+        <v>0.99938826987630902</v>
+      </c>
+      <c r="Q29">
+        <v>4.9332473132536199E-2</v>
+      </c>
+      <c r="R29">
+        <v>4.6694178000505203E-2</v>
+      </c>
+      <c r="S29">
+        <v>0.35691258908802898</v>
+      </c>
+      <c r="T29">
+        <v>0.99999639478814295</v>
+      </c>
+      <c r="U29">
+        <v>3.2805806818792797E-2</v>
+      </c>
+      <c r="V29">
+        <v>3.1301908923458403E-2</v>
+      </c>
+      <c r="W29">
+        <v>3.5712699534286303E-2</v>
+      </c>
+      <c r="X29">
+        <v>2.9664805425964301E-2</v>
+      </c>
+      <c r="Y29">
+        <v>3.3104137911877801E-2</v>
+      </c>
+      <c r="Z29">
+        <v>3.24612964604684E-2</v>
+      </c>
+      <c r="AA29">
+        <v>3.4984790933621703E-2</v>
+      </c>
+      <c r="AB29">
+        <v>3.4976484323528602E-2</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>2.9863696189031199E-2</v>
+      </c>
+      <c r="AE29">
+        <v>3.0429588963568899E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1.9293314698565E-2</v>
+      </c>
+      <c r="C30">
+        <v>6.9162541717216794E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.3173623143974E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.39029387532942E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.39550840205934E-2</v>
+      </c>
+      <c r="G30">
+        <v>2.6714621822853401E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.39453142904323E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.7824637282189101E-2</v>
+      </c>
+      <c r="J30">
+        <v>2.7558081761027101E-2</v>
+      </c>
+      <c r="K30">
+        <v>2.74953479611484E-2</v>
+      </c>
+      <c r="L30">
+        <v>4.0777867964529597E-2</v>
+      </c>
+      <c r="M30">
+        <v>4.3082663573595803E-2</v>
+      </c>
+      <c r="N30">
+        <v>4.7745757209033401E-2</v>
+      </c>
+      <c r="O30">
+        <v>4.0330589908967401E-2</v>
+      </c>
+      <c r="P30">
+        <v>4.2758022680469701E-2</v>
+      </c>
+      <c r="Q30">
+        <v>4.8723837187104102E-2</v>
+      </c>
+      <c r="R30">
+        <v>4.6144364526588599E-2</v>
+      </c>
+      <c r="S30">
+        <v>0.35554285217758902</v>
+      </c>
+      <c r="T30">
+        <v>2.8874411221519701E-2</v>
+      </c>
+      <c r="U30">
+        <v>3.2235244713659503E-2</v>
+      </c>
+      <c r="V30">
+        <v>3.07374197826925E-2</v>
+      </c>
+      <c r="W30">
+        <v>3.5158343790256001E-2</v>
+      </c>
+      <c r="X30">
+        <v>2.91076185237014E-2</v>
+      </c>
+      <c r="Y30">
+        <v>3.2596007222764199E-2</v>
+      </c>
+      <c r="Z30">
+        <v>3.19380420801317E-2</v>
+      </c>
+      <c r="AA30">
+        <v>0.99990504712817296</v>
+      </c>
+      <c r="AB30">
+        <v>3.4401052759978297E-2</v>
+      </c>
+      <c r="AC30">
+        <v>2.9863696189031199E-2</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>2.9863251612673801E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>0.56887251208018597</v>
+      </c>
+      <c r="C31">
+        <v>6.9838768475521507E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.71732045019384505</v>
+      </c>
+      <c r="E31">
+        <v>1.4378752572836301E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.4389602668481201E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.999963565417754</v>
+      </c>
+      <c r="H31">
+        <v>1.4373101937434501E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.8310496325902299E-2</v>
+      </c>
+      <c r="J31">
+        <v>2.8082073089400101E-2</v>
+      </c>
+      <c r="K31">
+        <v>2.7982243365977599E-2</v>
+      </c>
+      <c r="L31">
+        <v>4.1310139876556101E-2</v>
+      </c>
+      <c r="M31">
+        <v>4.3676501957157797E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.99882184912132399</v>
+      </c>
+      <c r="O31">
+        <v>4.0851692395151101E-2</v>
+      </c>
+      <c r="P31">
+        <v>4.3343875400286003E-2</v>
+      </c>
+      <c r="Q31">
+        <v>4.9330507102969899E-2</v>
+      </c>
+      <c r="R31">
+        <v>4.6676783769208502E-2</v>
+      </c>
+      <c r="S31">
+        <v>0.35684882066412299</v>
+      </c>
+      <c r="T31">
+        <v>2.9433183977448901E-2</v>
+      </c>
+      <c r="U31">
+        <v>0.99997936491425898</v>
+      </c>
+      <c r="V31">
+        <v>3.1282521064060501E-2</v>
+      </c>
+      <c r="W31">
+        <v>3.5677283429108898E-2</v>
+      </c>
+      <c r="X31">
+        <v>2.9663098879378701E-2</v>
+      </c>
+      <c r="Y31">
+        <v>3.3092351995149802E-2</v>
+      </c>
+      <c r="Z31">
+        <v>3.2455299581906599E-2</v>
+      </c>
+      <c r="AA31">
+        <v>3.4958696246408301E-2</v>
+      </c>
+      <c r="AB31">
+        <v>0.99992455622281495</v>
+      </c>
+      <c r="AC31">
+        <v>3.0429588963568999E-2</v>
+      </c>
+      <c r="AD31">
+        <v>2.9863251612673801E-2</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AE31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>